--- a/SheetReader.Test/Book1.xlsx
+++ b/SheetReader.Test/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimonMourier\GitHub\SheetReader\SheetReader.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smo\GitHub\SheetReader\SheetReader.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D040BC-0B23-403B-AAF9-EC2183FDCD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AFCF67-2DC9-41AD-BAD0-2BDC2F3000E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{406621FE-4804-4F56-8644-6F67B2216A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{406621FE-4804-4F56-8644-6F67B2216A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>row1 cell 1</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>blah</t>
+  </si>
+  <si>
+    <t>this is a hidden sheet</t>
   </si>
 </sst>
 </file>
@@ -174,9 +177,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +217,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -320,7 +323,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,12 +664,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3291B2C0-C08E-4391-AE3F-160CB763F714}">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>